--- a/database/relatorio/PE 90004-2024/KIENTRO_BRASIL_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/KIENTRO_BRASIL_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,24 +446,41 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Mesa de mayo, material: estrutura tubular em aço inox, altura: altura regulável borboleta aço inox, componentes: bandeja aço inox 68 x 47cm, outros componentes: base aço inox tipo garfo com 2 rodízios</t>
+          <t>Mesa de mayo, material: estrutura tubular em aço inox, altura: altura regulável borboleta aço inox, componentes: bandeja aço inox 68 x 47cm, outros componentes: base aço inox tipo garfo com 2 rodízios</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 2.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 314.0</t>
+          <t>Marca:  IMPERIAL</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 628.0</t>
+          <t>Modelo:  MESA MAYO INOX</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 2</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 314,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 628,00</t>
         </is>
       </c>
     </row>

--- a/database/relatorio/PE 90004-2024/KIENTRO_BRASIL_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/KIENTRO_BRASIL_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 62 - MESA DE MAYO (399822)</t>
+          <t>Item 62 - MESA DE MAYO (399822)</t>
         </is>
       </c>
     </row>
